--- a/外盘价格涨跌统计.xlsx
+++ b/外盘价格涨跌统计.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="375" windowWidth="27795" windowHeight="11565"/>
+    <workbookView minimized="1" xWindow="600" yWindow="375" windowWidth="27795" windowHeight="11565"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1072,8 +1072,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:P34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
